--- a/data/NFL_totalPercentWins.xlsx
+++ b/data/NFL_totalPercentWins.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,443 +581,608 @@
       </c>
     </row>
     <row r="2" spans="1:56">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.375</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>0.4375</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.75</v>
+      </c>
+      <c r="G2">
+        <v>0.625</v>
+      </c>
+      <c r="H2">
+        <v>0.5625</v>
+      </c>
+      <c r="I2">
+        <v>0.6875</v>
+      </c>
+      <c r="J2">
+        <v>0.875</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2">
+        <v>0.75</v>
+      </c>
+      <c r="M2">
+        <v>0.625</v>
+      </c>
+      <c r="N2">
+        <v>0.3125</v>
+      </c>
+      <c r="O2">
+        <v>0.25</v>
+      </c>
+      <c r="P2">
+        <v>0.125</v>
+      </c>
+      <c r="Q2">
+        <v>0.625</v>
+      </c>
+      <c r="R2">
+        <v>0.6875</v>
+      </c>
+      <c r="S2">
+        <v>0.625</v>
+      </c>
+      <c r="T2">
+        <v>0.3125</v>
+      </c>
+      <c r="U2">
+        <v>0.3125</v>
+      </c>
+      <c r="V2">
+        <v>0.4375</v>
+      </c>
+      <c r="W2">
+        <v>0.125</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0.4375</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:56">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>0.3125</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
+        <v>0.5625</v>
+      </c>
+      <c r="E3">
+        <v>0.75</v>
+      </c>
+      <c r="F3">
+        <v>0.3125</v>
+      </c>
+      <c r="G3">
+        <v>0.5625</v>
+      </c>
+      <c r="H3">
+        <v>0.3125</v>
+      </c>
+      <c r="I3">
+        <v>0.4375</v>
+      </c>
+      <c r="J3">
+        <v>0.4375</v>
+      </c>
+      <c r="K3">
+        <v>0.0625</v>
+      </c>
+      <c r="L3">
+        <v>0.375</v>
+      </c>
+      <c r="M3">
+        <v>0.375</v>
+      </c>
+      <c r="N3">
+        <v>0.25</v>
+      </c>
+      <c r="O3">
+        <v>0.1875</v>
+      </c>
+      <c r="P3">
+        <v>0.25</v>
+      </c>
+      <c r="Q3">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
+        <v>0.4375</v>
+      </c>
+      <c r="S3">
+        <v>0.5625</v>
+      </c>
+      <c r="T3">
+        <v>0.4375</v>
+      </c>
+      <c r="U3">
+        <v>0.625</v>
+      </c>
+      <c r="V3">
+        <v>0.4375</v>
+      </c>
+      <c r="W3">
+        <v>0.375</v>
+      </c>
+      <c r="X3">
+        <v>0.1875</v>
+      </c>
+      <c r="Y3">
+        <v>0.5</v>
+      </c>
+      <c r="Z3">
+        <v>0.625</v>
+      </c>
+      <c r="AA3">
+        <v>0.9375</v>
+      </c>
+      <c r="AB3">
         <v>0.875</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1.5</v>
-      </c>
-      <c r="G3">
-        <v>1.25</v>
-      </c>
-      <c r="H3">
-        <v>1.125</v>
-      </c>
-      <c r="I3">
-        <v>1.375</v>
-      </c>
-      <c r="J3">
-        <v>1.875</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1.75</v>
-      </c>
-      <c r="M3">
-        <v>1.375</v>
-      </c>
-      <c r="N3">
-        <v>0.625</v>
-      </c>
-      <c r="O3">
-        <v>0.5</v>
-      </c>
-      <c r="P3">
-        <v>0.25</v>
-      </c>
-      <c r="Q3">
-        <v>1.25</v>
-      </c>
-      <c r="R3">
-        <v>1.375</v>
-      </c>
-      <c r="S3">
-        <v>1.25</v>
-      </c>
-      <c r="T3">
-        <v>0.625</v>
-      </c>
-      <c r="U3">
-        <v>0.625</v>
-      </c>
-      <c r="V3">
-        <v>0.875</v>
-      </c>
-      <c r="W3">
-        <v>0.25</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0.875</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="4" spans="1:56">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>1.125</v>
+        <v>0.4375</v>
       </c>
       <c r="E4">
-        <v>1.5</v>
+        <v>0.625</v>
       </c>
       <c r="F4">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="G4">
-        <v>1.125</v>
+        <v>0.6875</v>
       </c>
       <c r="H4">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="I4">
-        <v>0.875</v>
+        <v>0.5625</v>
       </c>
       <c r="J4">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="K4">
+        <v>0.625</v>
+      </c>
+      <c r="L4">
+        <v>0.4375</v>
+      </c>
+      <c r="M4">
+        <v>0.5625</v>
+      </c>
+      <c r="N4">
+        <v>0.625</v>
+      </c>
+      <c r="O4">
+        <v>0.4375</v>
+      </c>
+      <c r="P4">
+        <v>0.25</v>
+      </c>
+      <c r="Q4">
+        <v>0.1875</v>
+      </c>
+      <c r="R4">
+        <v>0.5625</v>
+      </c>
+      <c r="S4">
+        <v>0.375</v>
+      </c>
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <v>0.5625</v>
+      </c>
+      <c r="V4">
+        <v>0.6875</v>
+      </c>
+      <c r="W4">
+        <v>0.3125</v>
+      </c>
+      <c r="X4">
+        <v>0.25</v>
+      </c>
+      <c r="Y4">
+        <v>0.5625</v>
+      </c>
+      <c r="Z4">
+        <v>0.3125</v>
+      </c>
+      <c r="AA4">
+        <v>0.5</v>
+      </c>
+      <c r="AB4">
+        <v>0.75</v>
+      </c>
+      <c r="AC4">
+        <v>0.625</v>
+      </c>
+      <c r="AD4">
+        <v>0.625</v>
+      </c>
+      <c r="AE4">
+        <v>0.5625</v>
+      </c>
+      <c r="AF4">
+        <v>0.1875</v>
+      </c>
+      <c r="AG4">
+        <v>0.375</v>
+      </c>
+      <c r="AH4">
+        <v>0.4375</v>
+      </c>
+      <c r="AI4">
+        <v>0.4375</v>
+      </c>
+      <c r="AJ4">
+        <v>0.6875</v>
+      </c>
+      <c r="AK4">
+        <v>0.3125</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
         <v>0.125</v>
       </c>
-      <c r="L4">
-        <v>0.75</v>
-      </c>
-      <c r="M4">
-        <v>0.75</v>
-      </c>
-      <c r="N4">
-        <v>0.5</v>
-      </c>
-      <c r="O4">
-        <v>0.375</v>
-      </c>
-      <c r="P4">
-        <v>0.5</v>
-      </c>
-      <c r="Q4">
-        <v>0.5</v>
-      </c>
-      <c r="R4">
-        <v>0.875</v>
-      </c>
-      <c r="S4">
-        <v>1.125</v>
-      </c>
-      <c r="T4">
-        <v>0.875</v>
-      </c>
-      <c r="U4">
-        <v>1.25</v>
-      </c>
-      <c r="V4">
-        <v>0.875</v>
-      </c>
-      <c r="W4">
-        <v>0.75</v>
-      </c>
-      <c r="X4">
-        <v>0.375</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1.375</v>
-      </c>
-      <c r="AA4">
-        <v>2.125</v>
-      </c>
-      <c r="AB4">
-        <v>1.75</v>
-      </c>
-      <c r="AC4">
-        <v>1.375</v>
-      </c>
-      <c r="AD4">
-        <v>1.625</v>
-      </c>
-      <c r="AE4">
-        <v>0.75</v>
-      </c>
-      <c r="AF4">
-        <v>1.5</v>
-      </c>
-      <c r="AG4">
-        <v>1.375</v>
-      </c>
-      <c r="AH4">
-        <v>0.625</v>
-      </c>
-      <c r="AI4">
-        <v>0.875</v>
-      </c>
-      <c r="AJ4">
-        <v>1.25</v>
-      </c>
-      <c r="AK4">
-        <v>1.125</v>
-      </c>
-      <c r="AL4">
-        <v>0.875</v>
-      </c>
-      <c r="AM4">
-        <v>0.5</v>
-      </c>
-      <c r="AN4">
-        <v>0.5</v>
-      </c>
-      <c r="AO4">
-        <v>0.75</v>
-      </c>
       <c r="AP4">
-        <v>0.625</v>
+        <v>0.1875</v>
       </c>
       <c r="AQ4">
-        <v>1.625</v>
+        <v>0.4375</v>
       </c>
       <c r="AR4">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="AS4">
-        <v>0.875</v>
+        <v>0.3125</v>
       </c>
       <c r="AT4">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="AU4">
-        <v>1.375</v>
+        <v>0.375</v>
       </c>
       <c r="AV4">
-        <v>1.875</v>
+        <v>0.25</v>
       </c>
       <c r="AW4">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="AX4">
-        <v>1.125</v>
+        <v>0.25</v>
       </c>
       <c r="AY4">
-        <v>0.875</v>
+        <v>0.3125</v>
       </c>
       <c r="AZ4">
-        <v>1.5</v>
+        <v>0.3125</v>
       </c>
       <c r="BA4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="BB4">
-        <v>1.25</v>
+        <v>0.3125</v>
       </c>
       <c r="BC4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="BD4">
-        <v>0.625</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="5" spans="1:56">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.875</v>
+        <v>0.6875</v>
       </c>
       <c r="E5">
-        <v>1.25</v>
+        <v>0.3125</v>
       </c>
       <c r="F5">
-        <v>1.375</v>
+        <v>0.4375</v>
       </c>
       <c r="G5">
-        <v>1.375</v>
+        <v>0.4375</v>
       </c>
       <c r="H5">
-        <v>1.125</v>
+        <v>0.3125</v>
       </c>
       <c r="I5">
-        <v>1.125</v>
+        <v>0.3125</v>
       </c>
       <c r="J5">
-        <v>1.375</v>
+        <v>0.25</v>
       </c>
       <c r="K5">
-        <v>1.375</v>
+        <v>0.625</v>
       </c>
       <c r="L5">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="M5">
-        <v>1.125</v>
+        <v>0.4375</v>
       </c>
       <c r="N5">
-        <v>1.25</v>
+        <v>0.5625</v>
       </c>
       <c r="O5">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="Q5">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="R5">
-        <v>1.125</v>
+        <v>0.375</v>
       </c>
       <c r="S5">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="U5">
-        <v>1.125</v>
+        <v>0.125</v>
       </c>
       <c r="V5">
-        <v>1.375</v>
+        <v>0.5625</v>
       </c>
       <c r="W5">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Y5">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="Z5">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB5">
-        <v>1.625</v>
+        <v>0.3125</v>
       </c>
       <c r="AC5">
-        <v>1.375</v>
+        <v>0.25</v>
       </c>
       <c r="AD5">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AE5">
-        <v>1.25</v>
+        <v>0.4375</v>
       </c>
       <c r="AF5">
         <v>0.375</v>
@@ -1026,824 +1191,824 @@
         <v>0.75</v>
       </c>
       <c r="AH5">
-        <v>0.875</v>
+        <v>0.3125</v>
       </c>
       <c r="AI5">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="AJ5">
-        <v>1.5</v>
+        <v>0.5625</v>
       </c>
       <c r="AK5">
         <v>0.625</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="AO5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP5">
-        <v>0.375</v>
+        <v>0.5625</v>
       </c>
       <c r="AQ5">
-        <v>0.875</v>
+        <v>0.125</v>
       </c>
       <c r="AR5">
-        <v>1.125</v>
+        <v>0.1875</v>
       </c>
       <c r="AS5">
-        <v>0.625</v>
+        <v>0.3125</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AU5">
-        <v>0.75</v>
+        <v>0.3125</v>
       </c>
       <c r="AV5">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="AW5">
-        <v>1.25</v>
+        <v>0.4375</v>
       </c>
       <c r="AX5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.625</v>
+        <v>0.125</v>
       </c>
       <c r="AZ5">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="BA5">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="BB5">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="BC5">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="BD5">
-        <v>0.875</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="6" spans="1:56">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.75</v>
+      </c>
+      <c r="D6">
         <v>0.875</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1.375</v>
-      </c>
       <c r="E6">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="F6">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.875</v>
+        <v>0.6875</v>
       </c>
       <c r="H6">
-        <v>0.625</v>
+        <v>0.8125</v>
       </c>
       <c r="I6">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="J6">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="K6">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
-        <v>1.25</v>
+        <v>0.375</v>
       </c>
       <c r="M6">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="N6">
-        <v>1.125</v>
+        <v>0.625</v>
       </c>
       <c r="O6">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="P6">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="Q6">
-        <v>0.875</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>0.75</v>
+        <v>0.3125</v>
       </c>
       <c r="S6">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="T6">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="U6">
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="V6">
-        <v>1.125</v>
+        <v>0.3125</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="Y6">
-        <v>1.125</v>
+        <v>0.5</v>
       </c>
       <c r="Z6">
         <v>0.5</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AB6">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AD6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AE6">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="AF6">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AG6">
-        <v>1.625</v>
+        <v>0.25</v>
       </c>
       <c r="AH6">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="AI6">
-        <v>1.25</v>
+        <v>0.5625</v>
       </c>
       <c r="AJ6">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="AK6">
-        <v>1.25</v>
+        <v>0.6875</v>
       </c>
       <c r="AL6">
-        <v>0.625</v>
+        <v>0.8125</v>
       </c>
       <c r="AM6">
-        <v>1.125</v>
+        <v>0.8125</v>
       </c>
       <c r="AN6">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP6">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="AQ6">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR6">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="AS6">
         <v>0.625</v>
       </c>
       <c r="AT6">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AU6">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="AV6">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AW6">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AY6">
-        <v>0.25</v>
+        <v>0.6875</v>
       </c>
       <c r="AZ6">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="BA6">
-        <v>1.25</v>
+        <v>0.9375</v>
       </c>
       <c r="BB6">
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
       <c r="BC6">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="BD6">
-        <v>1.375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:56">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.3125</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="D7">
-        <v>1.75</v>
+        <v>0.125</v>
       </c>
       <c r="E7">
-        <v>1.5</v>
+        <v>0.3125</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="G7">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="H7">
-        <v>1.625</v>
+        <v>0.5</v>
       </c>
       <c r="I7">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="J7">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.6875</v>
       </c>
       <c r="L7">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="M7">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="N7">
-        <v>1.25</v>
+        <v>0.4375</v>
       </c>
       <c r="O7">
         <v>0.75</v>
       </c>
       <c r="P7">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R7">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="S7">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U7">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="V7">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="X7">
-        <v>0.875</v>
+        <v>0.125</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0.5625</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0.6875</v>
       </c>
       <c r="AB7">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AC7">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AD7">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AE7">
-        <v>1.25</v>
+        <v>0.6875</v>
       </c>
       <c r="AF7">
-        <v>0.75</v>
+        <v>0.3125</v>
       </c>
       <c r="AG7">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="AH7">
-        <v>1.125</v>
+        <v>0.375</v>
       </c>
       <c r="AI7">
-        <v>1.25</v>
+        <v>0.3125</v>
       </c>
       <c r="AJ7">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AK7">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>1.875</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>1.875</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>1.375</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.125</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.375</v>
+        <v>0</v>
       </c>
       <c r="AT7">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AU7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AX7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AY7">
-        <v>1.375</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="BA7">
-        <v>1.875</v>
+        <v>0</v>
       </c>
       <c r="BB7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7">
-        <v>1.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:56">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.625</v>
+        <v>0.4375</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E8">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="F8">
+        <v>0.25</v>
+      </c>
+      <c r="G8">
+        <v>0.4375</v>
+      </c>
+      <c r="H8">
+        <v>0.0625</v>
+      </c>
+      <c r="I8">
+        <v>0.4375</v>
+      </c>
+      <c r="J8">
+        <v>0.4375</v>
+      </c>
+      <c r="K8">
+        <v>0.375</v>
+      </c>
+      <c r="L8">
+        <v>0.5625</v>
+      </c>
+      <c r="M8">
+        <v>0.25</v>
+      </c>
+      <c r="N8">
+        <v>0.5</v>
+      </c>
+      <c r="O8">
+        <v>0.125</v>
+      </c>
+      <c r="P8">
+        <v>0.125</v>
+      </c>
+      <c r="Q8">
+        <v>0.3125</v>
+      </c>
+      <c r="R8">
+        <v>0.1875</v>
+      </c>
+      <c r="S8">
+        <v>0.3125</v>
+      </c>
+      <c r="T8">
+        <v>0.375</v>
+      </c>
+      <c r="U8">
+        <v>0.375</v>
+      </c>
+      <c r="V8">
+        <v>0.25</v>
+      </c>
+      <c r="W8">
+        <v>0.5625</v>
+      </c>
+      <c r="X8">
+        <v>0.25</v>
+      </c>
+      <c r="Y8">
+        <v>0.25</v>
+      </c>
+      <c r="Z8">
+        <v>0.5625</v>
+      </c>
+      <c r="AA8">
+        <v>0.625</v>
+      </c>
+      <c r="AB8">
         <v>0.875</v>
       </c>
-      <c r="G8">
-        <v>0.5</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1.5</v>
-      </c>
-      <c r="J8">
-        <v>1.25</v>
-      </c>
-      <c r="K8">
-        <v>1.375</v>
-      </c>
-      <c r="L8">
-        <v>1.25</v>
-      </c>
-      <c r="M8">
-        <v>1.125</v>
-      </c>
-      <c r="N8">
-        <v>0.875</v>
-      </c>
-      <c r="O8">
-        <v>1.5</v>
-      </c>
-      <c r="P8">
-        <v>1.375</v>
-      </c>
-      <c r="Q8">
-        <v>1.625</v>
-      </c>
-      <c r="R8">
-        <v>1.5</v>
-      </c>
-      <c r="S8">
-        <v>1.25</v>
-      </c>
-      <c r="T8">
-        <v>1.625</v>
-      </c>
-      <c r="U8">
-        <v>1.375</v>
-      </c>
-      <c r="V8">
-        <v>1.375</v>
-      </c>
-      <c r="W8">
-        <v>0.75</v>
-      </c>
-      <c r="X8">
-        <v>0.25</v>
-      </c>
-      <c r="Y8">
-        <v>1.25</v>
-      </c>
-      <c r="Z8">
-        <v>1.25</v>
-      </c>
-      <c r="AA8">
-        <v>1.5</v>
-      </c>
-      <c r="AB8">
-        <v>1.25</v>
-      </c>
       <c r="AC8">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AD8">
-        <v>1.25</v>
+        <v>0.625</v>
       </c>
       <c r="AE8">
-        <v>1.625</v>
+        <v>0.75</v>
       </c>
       <c r="AF8">
-        <v>0.625</v>
+        <v>0.8125</v>
       </c>
       <c r="AG8">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AH8">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AI8">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="AJ8">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="9" spans="1:56">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.875</v>
+        <v>0.6875</v>
       </c>
       <c r="C9">
-        <v>1.375</v>
+        <v>0.625</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="E9">
-        <v>1.375</v>
+        <v>0.125</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="G9">
-        <v>0.875</v>
+        <v>0.3125</v>
       </c>
       <c r="H9">
+        <v>0.5625</v>
+      </c>
+      <c r="I9">
+        <v>0.375</v>
+      </c>
+      <c r="J9">
         <v>0.125</v>
       </c>
-      <c r="I9">
-        <v>0.875</v>
-      </c>
-      <c r="J9">
-        <v>0.875</v>
-      </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="L9">
-        <v>1.125</v>
+        <v>0.25</v>
       </c>
       <c r="M9">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.1875</v>
       </c>
       <c r="O9">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="P9">
-        <v>0.25</v>
+        <v>0.4375</v>
       </c>
       <c r="Q9">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="S9">
-        <v>0.625</v>
+        <v>0.3125</v>
       </c>
       <c r="T9">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="U9">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="V9">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="W9">
-        <v>1.25</v>
+        <v>0.625</v>
       </c>
       <c r="X9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="Y9">
-        <v>0.5</v>
+        <v>0.3125</v>
       </c>
       <c r="Z9">
-        <v>1.25</v>
+        <v>0.4375</v>
       </c>
       <c r="AA9">
-        <v>1.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>0.375</v>
       </c>
       <c r="AC9">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AD9">
-        <v>1.25</v>
+        <v>0.625</v>
       </c>
       <c r="AE9">
-        <v>1.5</v>
+        <v>0.6875</v>
       </c>
       <c r="AF9">
-        <v>1.875</v>
+        <v>0.625</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AH9">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="AI9">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AJ9">
-        <v>1.125</v>
+        <v>0.4375</v>
       </c>
       <c r="AK9">
         <v>0.625</v>
       </c>
       <c r="AL9">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AM9">
-        <v>1.25</v>
+        <v>0.375</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.1875</v>
       </c>
       <c r="AO9">
-        <v>0.875</v>
+        <v>0.3125</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>0.6875</v>
       </c>
       <c r="AQ9">
-        <v>0.875</v>
+        <v>0.6875</v>
       </c>
       <c r="AR9">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AS9">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AT9">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="AU9">
-        <v>1.375</v>
+        <v>0.375</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AW9">
-        <v>1.625</v>
+        <v>0.5</v>
       </c>
       <c r="AX9">
-        <v>1.5</v>
+        <v>0.625</v>
       </c>
       <c r="AY9">
-        <v>1</v>
+        <v>0.6875</v>
       </c>
       <c r="AZ9">
-        <v>1.25</v>
+        <v>0.625</v>
       </c>
       <c r="BA9">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="BB9">
-        <v>1.125</v>
+        <v>0.25</v>
       </c>
       <c r="BC9">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="BD9">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="10" spans="1:56">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1.375</v>
+        <v>0.3125</v>
       </c>
       <c r="C10">
-        <v>1.25</v>
+        <v>0.375</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="E10">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
       <c r="F10">
-        <v>0.75</v>
+        <v>0.3125</v>
       </c>
       <c r="G10">
-        <v>0.625</v>
+        <v>0.125</v>
       </c>
       <c r="H10">
-        <v>1.125</v>
+        <v>0.375</v>
       </c>
       <c r="I10">
-        <v>0.75</v>
+        <v>0.3125</v>
       </c>
       <c r="J10">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0.3125</v>
       </c>
       <c r="M10">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="N10">
-        <v>0.375</v>
+        <v>0.6875</v>
       </c>
       <c r="O10">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="P10">
+        <v>0.6875</v>
+      </c>
+      <c r="Q10">
+        <v>0.75</v>
+      </c>
+      <c r="R10">
+        <v>0.625</v>
+      </c>
+      <c r="S10">
+        <v>0.5625</v>
+      </c>
+      <c r="T10">
         <v>0.875</v>
       </c>
-      <c r="Q10">
-        <v>0.5</v>
-      </c>
-      <c r="R10">
-        <v>0.5</v>
-      </c>
-      <c r="S10">
-        <v>0.625</v>
-      </c>
-      <c r="T10">
-        <v>1.125</v>
-      </c>
       <c r="U10">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="V10">
-        <v>1.75</v>
+        <v>0.5625</v>
       </c>
       <c r="W10">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X10">
         <v>0.375</v>
@@ -1852,777 +2017,607 @@
         <v>0.625</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0.5625</v>
       </c>
       <c r="AA10">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB10">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AC10">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AD10">
-        <v>1.25</v>
+        <v>0.3125</v>
       </c>
       <c r="AE10">
-        <v>1.375</v>
+        <v>0.5625</v>
       </c>
       <c r="AF10">
-        <v>1.25</v>
+        <v>0.5625</v>
       </c>
       <c r="AG10">
-        <v>1.25</v>
+        <v>0.4375</v>
       </c>
       <c r="AH10">
-        <v>1.5</v>
+        <v>0.6875</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.5625</v>
       </c>
       <c r="AJ10">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AK10">
-        <v>1.375</v>
+        <v>0.6875</v>
       </c>
       <c r="AL10">
-        <v>1.25</v>
+        <v>0.625</v>
       </c>
       <c r="AM10">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="AN10">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AO10">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>0.5625</v>
       </c>
       <c r="AQ10">
-        <v>1.625</v>
+        <v>0.8125</v>
       </c>
       <c r="AR10">
-        <v>1.625</v>
+        <v>0.6875</v>
       </c>
       <c r="AS10">
-        <v>1.625</v>
+        <v>0.375</v>
       </c>
       <c r="AT10">
-        <v>1.875</v>
+        <v>0.9375</v>
       </c>
       <c r="AU10">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="AV10">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="AW10">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AX10">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AY10">
-        <v>1.375</v>
+        <v>0.5625</v>
       </c>
       <c r="AZ10">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="BA10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BB10">
         <v>0.5</v>
       </c>
       <c r="BC10">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="BD10">
-        <v>1.25</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="11" spans="1:56">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>0.625</v>
+        <v>0.4375</v>
       </c>
       <c r="C11">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>1.125</v>
+        <v>0.375</v>
       </c>
       <c r="E11">
-        <v>1.25</v>
+        <v>0.125</v>
       </c>
       <c r="F11">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="G11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I11">
-        <v>0.625</v>
+        <v>0.4375</v>
       </c>
       <c r="J11">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="K11">
+        <v>0.3125</v>
+      </c>
+      <c r="L11">
+        <v>0.6875</v>
+      </c>
+      <c r="M11">
+        <v>0.5625</v>
+      </c>
+      <c r="N11">
+        <v>0.5625</v>
+      </c>
+      <c r="O11">
+        <v>0.3125</v>
+      </c>
+      <c r="P11">
+        <v>0.375</v>
+      </c>
+      <c r="Q11">
+        <v>0.3125</v>
+      </c>
+      <c r="R11">
+        <v>0.5</v>
+      </c>
+      <c r="S11">
+        <v>0.3125</v>
+      </c>
+      <c r="T11">
         <v>0.125</v>
       </c>
-      <c r="L11">
-        <v>0.625</v>
-      </c>
-      <c r="M11">
-        <v>0.75</v>
-      </c>
-      <c r="N11">
-        <v>1.5</v>
-      </c>
-      <c r="O11">
-        <v>1.25</v>
-      </c>
-      <c r="P11">
-        <v>1.625</v>
-      </c>
-      <c r="Q11">
-        <v>1.75</v>
-      </c>
-      <c r="R11">
-        <v>1.375</v>
-      </c>
-      <c r="S11">
-        <v>1.125</v>
-      </c>
-      <c r="T11">
-        <v>2</v>
-      </c>
       <c r="U11">
-        <v>1.75</v>
+        <v>0.125</v>
       </c>
       <c r="V11">
-        <v>1.125</v>
+        <v>0.375</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="X11">
-        <v>0.75</v>
+        <v>0.1875</v>
       </c>
       <c r="Y11">
-        <v>1.25</v>
+        <v>0.625</v>
       </c>
       <c r="Z11">
-        <v>1.25</v>
+        <v>0.9375</v>
       </c>
       <c r="AA11">
+        <v>0.625</v>
+      </c>
+      <c r="AB11">
+        <v>0.6875</v>
+      </c>
+      <c r="AC11">
+        <v>0.8125</v>
+      </c>
+      <c r="AD11">
+        <v>0.625</v>
+      </c>
+      <c r="AE11">
         <v>0.875</v>
       </c>
-      <c r="AB11">
-        <v>0.75</v>
-      </c>
-      <c r="AC11">
-        <v>1</v>
-      </c>
-      <c r="AD11">
-        <v>0.625</v>
-      </c>
-      <c r="AE11">
-        <v>1.25</v>
-      </c>
       <c r="AF11">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AG11">
+        <v>0.625</v>
+      </c>
+      <c r="AH11">
         <v>0.875</v>
       </c>
-      <c r="AH11">
-        <v>1.375</v>
-      </c>
       <c r="AI11">
-        <v>1.125</v>
+        <v>0.625</v>
       </c>
       <c r="AJ11">
-        <v>1.625</v>
+        <v>0.8125</v>
       </c>
       <c r="AK11">
-        <v>1.625</v>
+        <v>0.6875</v>
       </c>
       <c r="AL11">
-        <v>1.375</v>
+        <v>0.75</v>
       </c>
       <c r="AM11">
-        <v>1.5</v>
+        <v>0.8125</v>
       </c>
       <c r="AN11">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AO11">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AP11">
-        <v>1.125</v>
+        <v>0.375</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
-        <v>1.5</v>
+        <v>0.625</v>
       </c>
       <c r="AS11">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AT11">
-        <v>2</v>
+        <v>0.125</v>
       </c>
       <c r="AU11">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AW11">
-        <v>1.25</v>
+        <v>0.3125</v>
       </c>
       <c r="AX11">
-        <v>1.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AY11">
-        <v>1.125</v>
+        <v>0.5</v>
       </c>
       <c r="AZ11">
-        <v>1.75</v>
+        <v>0.375</v>
       </c>
       <c r="BA11">
-        <v>1.5</v>
+        <v>0.8125</v>
       </c>
       <c r="BB11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BC11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BD11">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:56">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="D12">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E12">
-        <v>0.25</v>
+        <v>0.5625</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.3125</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I12">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.5625</v>
       </c>
       <c r="K12">
-        <v>0.625</v>
+        <v>0.3125</v>
       </c>
       <c r="L12">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="N12">
-        <v>1.125</v>
+        <v>0.25</v>
       </c>
       <c r="O12">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="P12">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="Q12">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="S12">
-        <v>0.625</v>
+        <v>0.4375</v>
       </c>
       <c r="T12">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="U12">
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="V12">
-        <v>0.75</v>
+        <v>0.3125</v>
       </c>
       <c r="W12">
-        <v>1.875</v>
+        <v>0.4375</v>
       </c>
       <c r="X12">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
       <c r="Y12">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z12">
-        <v>2.125</v>
+        <v>0.5625</v>
       </c>
       <c r="AA12">
-        <v>1.25</v>
+        <v>0.3125</v>
       </c>
       <c r="AB12">
-        <v>1.375</v>
+        <v>0.25</v>
       </c>
       <c r="AC12">
-        <v>1.625</v>
+        <v>0.4375</v>
       </c>
       <c r="AD12">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>1.875</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>1.875</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>1.375</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>1.875</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>1.375</v>
+        <v>0</v>
       </c>
       <c r="AL12">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AN12">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>1.375</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AV12">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AW12">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="AX12">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AY12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BA12">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BB12">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BC12">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BD12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:56">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
+        <v>0.1875</v>
+      </c>
+      <c r="C13">
+        <v>0.125</v>
+      </c>
+      <c r="D13">
+        <v>0.4375</v>
+      </c>
+      <c r="E13">
+        <v>0.1875</v>
+      </c>
+      <c r="F13">
+        <v>0.375</v>
+      </c>
+      <c r="G13">
+        <v>0.375</v>
+      </c>
+      <c r="H13">
+        <v>0.4375</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>0.3125</v>
+      </c>
+      <c r="K13">
+        <v>0.5625</v>
+      </c>
+      <c r="L13">
+        <v>0.375</v>
+      </c>
+      <c r="M13">
+        <v>0.625</v>
+      </c>
+      <c r="N13">
+        <v>0.6875</v>
+      </c>
+      <c r="O13">
+        <v>0.625</v>
+      </c>
+      <c r="P13">
+        <v>0.625</v>
+      </c>
+      <c r="Q13">
+        <v>0.5</v>
+      </c>
+      <c r="R13">
+        <v>0.625</v>
+      </c>
+      <c r="S13">
+        <v>0.5625</v>
+      </c>
+      <c r="T13">
+        <v>0.5</v>
+      </c>
+      <c r="U13">
+        <v>0.625</v>
+      </c>
+      <c r="V13">
+        <v>0.375</v>
+      </c>
+      <c r="W13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>0.5</v>
+      </c>
+      <c r="Y13">
         <v>0.875</v>
       </c>
-      <c r="C13">
+      <c r="Z13">
+        <v>0.6875</v>
+      </c>
+      <c r="AA13">
+        <v>0.625</v>
+      </c>
+      <c r="AB13">
+        <v>0.75</v>
+      </c>
+      <c r="AC13">
+        <v>0.6875</v>
+      </c>
+      <c r="AD13">
+        <v>0.4375</v>
+      </c>
+      <c r="AE13">
+        <v>0.625</v>
+      </c>
+      <c r="AF13">
+        <v>0.625</v>
+      </c>
+      <c r="AG13">
         <v>0.875</v>
       </c>
-      <c r="D13">
-        <v>0.5</v>
-      </c>
-      <c r="E13">
-        <v>1.125</v>
-      </c>
-      <c r="F13">
-        <v>1.25</v>
-      </c>
-      <c r="G13">
-        <v>0.625</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0.75</v>
-      </c>
-      <c r="J13">
-        <v>1.125</v>
-      </c>
-      <c r="K13">
-        <v>0.625</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.5</v>
-      </c>
-      <c r="N13">
-        <v>0.5</v>
-      </c>
-      <c r="O13">
-        <v>0.5</v>
-      </c>
-      <c r="P13">
-        <v>1.25</v>
-      </c>
-      <c r="Q13">
-        <v>1.375</v>
-      </c>
-      <c r="R13">
-        <v>1.25</v>
-      </c>
-      <c r="S13">
-        <v>0.875</v>
-      </c>
-      <c r="T13">
-        <v>0.75</v>
-      </c>
-      <c r="U13">
-        <v>0.625</v>
-      </c>
-      <c r="V13">
-        <v>0.625</v>
-      </c>
-      <c r="W13">
-        <v>0.875</v>
-      </c>
-      <c r="X13">
-        <v>0.625</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <v>1.125</v>
-      </c>
-      <c r="AA13">
-        <v>0.625</v>
-      </c>
-      <c r="AB13">
-        <v>0.5</v>
-      </c>
-      <c r="AC13">
-        <v>0.875</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
       <c r="AH13">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="BD13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:56">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>0.375</v>
-      </c>
-      <c r="C14">
-        <v>0.25</v>
-      </c>
-      <c r="D14">
-        <v>0.875</v>
-      </c>
-      <c r="E14">
-        <v>0.375</v>
-      </c>
-      <c r="F14">
-        <v>0.75</v>
-      </c>
-      <c r="G14">
-        <v>0.75</v>
-      </c>
-      <c r="H14">
-        <v>0.875</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0.625</v>
-      </c>
-      <c r="K14">
-        <v>1.125</v>
-      </c>
-      <c r="L14">
-        <v>0.75</v>
-      </c>
-      <c r="M14">
-        <v>1.25</v>
-      </c>
-      <c r="N14">
-        <v>1.625</v>
-      </c>
-      <c r="O14">
-        <v>1.25</v>
-      </c>
-      <c r="P14">
-        <v>1.25</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1.25</v>
-      </c>
-      <c r="S14">
-        <v>1.125</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1.25</v>
-      </c>
-      <c r="V14">
-        <v>0.75</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>1.375</v>
-      </c>
-      <c r="Y14">
-        <v>2</v>
-      </c>
-      <c r="Z14">
-        <v>1.375</v>
-      </c>
-      <c r="AA14">
-        <v>1.25</v>
-      </c>
-      <c r="AB14">
-        <v>1.75</v>
-      </c>
-      <c r="AC14">
-        <v>1.625</v>
-      </c>
-      <c r="AD14">
-        <v>0.875</v>
-      </c>
-      <c r="AE14">
-        <v>1.25</v>
-      </c>
-      <c r="AF14">
-        <v>1.375</v>
-      </c>
-      <c r="AG14">
-        <v>2</v>
-      </c>
-      <c r="AH14">
-        <v>1.25</v>
-      </c>
-      <c r="AI14">
-        <v>0.5</v>
-      </c>
-      <c r="AJ14">
-        <v>0.375</v>
-      </c>
-      <c r="AK14">
-        <v>0.75</v>
-      </c>
-      <c r="AL14">
-        <v>1.125</v>
-      </c>
-      <c r="AM14">
-        <v>1.125</v>
-      </c>
-      <c r="AN14">
-        <v>0.75</v>
-      </c>
-      <c r="AO14">
-        <v>1.375</v>
-      </c>
-      <c r="AP14">
-        <v>1</v>
-      </c>
-      <c r="AQ14">
-        <v>1</v>
-      </c>
-      <c r="AR14">
-        <v>0.875</v>
-      </c>
-      <c r="AS14">
-        <v>0.625</v>
-      </c>
-      <c r="AT14">
-        <v>0.75</v>
-      </c>
-      <c r="AU14">
-        <v>1.375</v>
-      </c>
-      <c r="AV14">
-        <v>0.625</v>
-      </c>
-      <c r="AW14">
-        <v>1.125</v>
-      </c>
-      <c r="AX14">
-        <v>1</v>
-      </c>
-      <c r="AY14">
-        <v>0.5</v>
-      </c>
-      <c r="AZ14">
-        <v>0.75</v>
-      </c>
-      <c r="BA14">
-        <v>0.625</v>
-      </c>
-      <c r="BB14">
-        <v>1.25</v>
-      </c>
-      <c r="BC14">
-        <v>0.375</v>
-      </c>
-      <c r="BD14">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
